--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vinaver\helix2fan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D3A1029-D762-4A8E-8A87-905FF9A742D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95CEE73-C88F-40CF-B33C-2FAF43A04C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{ADC2DCF9-340E-4F56-AA3F-10EA8AF40678}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>read_projections()</t>
   </si>
@@ -162,6 +162,36 @@
   </si>
   <si>
     <t>P*N_Rotations</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>original_parameters.txt</t>
+  </si>
+  <si>
+    <t>rtcat_params.txt</t>
+  </si>
+  <si>
+    <t>scanner_Y_pixels</t>
+  </si>
+  <si>
+    <t>scanner_X_pixels</t>
+  </si>
+  <si>
+    <t>scanner_Y_pixel_size</t>
+  </si>
+  <si>
+    <t>scanner_Z_pixel_size</t>
+  </si>
+  <si>
+    <t>mu_eff</t>
+  </si>
+  <si>
+    <t>xray_source_to center_of_rotation</t>
+  </si>
+  <si>
+    <t>SID</t>
   </si>
 </sst>
 </file>
@@ -513,19 +543,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6C6DC8-9FE5-486C-8B2E-E8A7870EC855}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -533,168 +564,210 @@
         <v>29</v>
       </c>
       <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
       <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
       <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
       <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
       <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -702,42 +775,52 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
         <v>22</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vinaver\helix2fan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95CEE73-C88F-40CF-B33C-2FAF43A04C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A7FC12-8E2D-44FA-8B8B-39D4B945424C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{ADC2DCF9-340E-4F56-AA3F-10EA8AF40678}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>read_projections()</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>SID</t>
+  </si>
+  <si>
+    <t>central detector pixel</t>
+  </si>
+  <si>
+    <t>z / number of rotations</t>
   </si>
 </sst>
 </file>
@@ -545,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6C6DC8-9FE5-486C-8B2E-E8A7870EC855}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,6 +739,9 @@
       <c r="A23" t="s">
         <v>18</v>
       </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -787,6 +796,9 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
